--- a/biology/Médecine/AMIS_FSH/AMIS_FSH.xlsx
+++ b/biology/Médecine/AMIS_FSH/AMIS_FSH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association AMIS FSH est une association française de type loi de 1901, créée en 2002 et consacrée à la lutte contre la dystrophie facio-scapulo-humérale, une maladie rare, évolutive, d'origine génétique, touchant les muscles.
 </t>
@@ -511,7 +523,9 @@
           <t>Ses missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'association s'est fixé quatre missions :
 rompre l’isolement des patients ;
@@ -547,22 +561,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rompre l'isolement des patients
-Pour rompre l’isolement des malades, AMIS FSH a mis en place :
+          <t>Rompre l'isolement des patients</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour rompre l’isolement des malades, AMIS FSH a mis en place :
 un site internet (certifié HONcode pour la qualité et la transparence de ses informations), dont le forum (partie privée) constitue un lieu d'échanges privilégié entre malades ;
 une écoute téléphonique pour un contact personnel et bienveillant avec un bénévole de l’association ;
-des journées[1] et des week-ends[2] d'échanges entre  malades, chercheurs et médecins, organisés deux fois par an, qui offrent des conférences de chercheurs, des tables rondes, des ateliers techniques...
-Informer
-AMIS FSH a pour priorité de collecter l'information dans les revues et les congrès scientifiques pour la transmettre au plus grand nombre (patients, médecins, chercheurs). Outre les journées et les week-ends FSH qu'elle organise, l'association publie :
-la Gazette d’AMIS FSH : une lettre d’information trimestrielle sur l’actualité de la recherche et la vie associative ;
-les Dossiers d’AMIS FSH : des dossiers de synthèse sur différents aspects de la dystrophie FSH (DPN/DPI (diagnostic prénatal et préimplantatoire), arthrodèse scapulothoracique, etc.) ;
-une lettre de veille scientifique diffusée aux chercheurs et aux responsables d’associations de patients du monde entier.
-Promouvoir la recherche
-AMIS FSH a été promoteur d'une étude clinique en 2005 (fait notable parmi les mouvements de malades), qui a débouché en 2010 sur un essai clinique thérapeutique, mené auprès de 54 patients, au laboratoire Physiologie et médecine expérimentale du cœur et des muscles[3], au CHRU de Montpellier[4],[5]. les résultats de cet essai clinique s'avèrent encourageants et ont été publiés dans la revue Free Radical Biology &amp; Medicine[6].
-Établir des réseaux
-AMIS FSH est membre fondateur de l’association européenne FSHD Europe[7], créée en 2009, qui fédère les associations de lutte contre la dystrophie FSH. FSHD Europe a son siège à Baarn, aux Pays-Bas, et a été présidé par Kees van der Graaf, ancien président d'Unilever Europe. Sa président actuelle est Fabiola Bertinotti.
-AMIS FSH participe à des manifestations en faveur des maladies rares[8]. L'association a signalé la difficulté de recruter des patients pour des essais cliniques concernant les maladies rares[9].
-</t>
+des journées et des week-ends d'échanges entre  malades, chercheurs et médecins, organisés deux fois par an, qui offrent des conférences de chercheurs, des tables rondes, des ateliers techniques...</t>
         </is>
       </c>
     </row>
@@ -587,15 +595,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Recherche de fonds</t>
+          <t>Ses actions</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L’association est financée par les adhésions et les dons.
-En février 2012, une coureuse de fond a participé à la course humanitaire La Sénégazelle[10] aux couleurs de l'association pour récolter des fonds[11],[12],[13],[14].
-En novembre 2012, l'association a pris part à une opération de financement participatif pour financer une exposition itinérante de photographies avec l'Agence Look at sciences, destinée à faire connaître la maladie et attirer des mécènes[15].
-</t>
+          <t>Informer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AMIS FSH a pour priorité de collecter l'information dans les revues et les congrès scientifiques pour la transmettre au plus grand nombre (patients, médecins, chercheurs). Outre les journées et les week-ends FSH qu'elle organise, l'association publie :
+la Gazette d’AMIS FSH : une lettre d’information trimestrielle sur l’actualité de la recherche et la vie associative ;
+les Dossiers d’AMIS FSH : des dossiers de synthèse sur différents aspects de la dystrophie FSH (DPN/DPI (diagnostic prénatal et préimplantatoire), arthrodèse scapulothoracique, etc.) ;
+une lettre de veille scientifique diffusée aux chercheurs et aux responsables d’associations de patients du monde entier.</t>
         </is>
       </c>
     </row>
@@ -620,10 +634,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ses actions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Promouvoir la recherche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMIS FSH a été promoteur d'une étude clinique en 2005 (fait notable parmi les mouvements de malades), qui a débouché en 2010 sur un essai clinique thérapeutique, mené auprès de 54 patients, au laboratoire Physiologie et médecine expérimentale du cœur et des muscles, au CHRU de Montpellier,. les résultats de cet essai clinique s'avèrent encourageants et ont été publiés dans la revue Free Radical Biology &amp; Medicine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ses actions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Établir des réseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMIS FSH est membre fondateur de l’association européenne FSHD Europe, créée en 2009, qui fédère les associations de lutte contre la dystrophie FSH. FSHD Europe a son siège à Baarn, aux Pays-Bas, et a été présidé par Kees van der Graaf, ancien président d'Unilever Europe. Sa président actuelle est Fabiola Bertinotti.
+AMIS FSH participe à des manifestations en faveur des maladies rares. L'association a signalé la difficulté de recruter des patients pour des essais cliniques concernant les maladies rares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Recherche de fonds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’association est financée par les adhésions et les dons.
+En février 2012, une coureuse de fond a participé à la course humanitaire La Sénégazelle aux couleurs de l'association pour récolter des fonds.
+En novembre 2012, l'association a pris part à une opération de financement participatif pour financer une exposition itinérante de photographies avec l'Agence Look at sciences, destinée à faire connaître la maladie et attirer des mécènes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dates clés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2002 : création de l'association AMIS FSH Europe.
 2003 : première participation à un congrès scientifique international.
@@ -631,39 +757,41 @@
 2007 : première contribution à un financement de thèse.
 2009 : AMIS FSH Europe est cofondateur de l'association FSHD Europe, qui fédère des associations de lutte contre la dystrophie FSH.
 2010 : début de l'essai thérapeutique fondé sur une supplémentation en antioxydants, cofinancé par AMIS FSH.
-2012 : fin de l'essai thérapeutique fondé sur une supplémentation en antioxydants. Des résultats préliminaires sont annoncés le 28 octobre 2012 lors du WE FSH 2012 à Agde[16],[17].
+2012 : fin de l'essai thérapeutique fondé sur une supplémentation en antioxydants. Des résultats préliminaires sont annoncés le 28 octobre 2012 lors du WE FSH 2012 à Agde,.
 2013 : exposition photo et vidéo FSH, l'autre myopathie à Paris.
-2014 : modification du nom de l'association : « AMIS FSH Europe » devient « AMIS FSH »[18].
+2014 : modification du nom de l'association : « AMIS FSH Europe » devient « AMIS FSH ».
 2014 : AMIS FSH reçoit l'agrément du Ministère de la Santé (arrêté du 14 janvier 2014, publié au Journal officiel de la République française le 23 janvier 2014).
 2017 : AMIS FSH se dote d'un conseil scientifique.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AMIS_FSH</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2002 - 2005 Cyrus Hématy
 2005 - 2014 Manuel Cabral
@@ -672,31 +800,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AMIS_FSH</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AMIS_FSH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Quelques chiffres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>115 visites par jour sur le site d’AMIS FSH en 2013.
 350 personnes inscrites sur le forum privé.
